--- a/TestOutput/DTFO/OutputSheet.xlsx
+++ b/TestOutput/DTFO/OutputSheet.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2039" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="273">
   <si>
     <t>TCID</t>
   </si>
@@ -841,10 +841,13 @@
     <t>storeFinder</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t>NOT EXECUTED</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -854,7 +857,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="84" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,6 +983,378 @@
     <font>
       <name val="Calibri"/>
       <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="17"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <color indexed="17"/>
       <b val="true"/>
     </font>
@@ -1029,7 +1404,7 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="5" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="104">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1110,6 +1485,68 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -1415,7 +1852,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,10 +1886,10 @@
         <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" t="s">
-        <v>270</v>
+        <v>262</v>
+      </c>
+      <c r="D2" t="s" s="38">
+        <v>271</v>
       </c>
     </row>
     <row ht="28.5" r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1463,9 +1900,9 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" t="s" s="68">
         <v>270</v>
       </c>
     </row>
@@ -1477,9 +1914,9 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" t="s" s="96">
         <v>270</v>
       </c>
     </row>
@@ -1491,9 +1928,9 @@
         <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" t="s" s="103">
         <v>270</v>
       </c>
     </row>
@@ -1508,7 +1945,7 @@
         <v>266</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="28.5" r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1522,7 +1959,7 @@
         <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="28.5" r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1536,7 +1973,7 @@
         <v>266</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="28.5" r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1550,7 +1987,7 @@
         <v>266</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="28.5" r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1564,7 +2001,7 @@
         <v>266</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="28.5" r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1578,7 +2015,7 @@
         <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="28.5" r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1592,7 +2029,7 @@
         <v>266</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="28.5" r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1606,7 +2043,7 @@
         <v>266</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row ht="28.5" r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1620,7 +2057,7 @@
         <v>266</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="21.75" r="15" s="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1631,10 +2068,10 @@
         <v>269</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D15" t="s" s="41">
-        <v>271</v>
+        <v>266</v>
+      </c>
+      <c r="D15" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5590,9 +6027,6 @@
       <c r="E2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s" s="33">
-        <v>271</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
@@ -5610,9 +6044,6 @@
       <c r="E3" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s" s="34">
-        <v>271</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
@@ -5630,9 +6061,6 @@
       <c r="E4" s="26">
         <v>60</v>
       </c>
-      <c r="F4" t="s" s="35">
-        <v>271</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -5650,9 +6078,6 @@
       <c r="E5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F5" t="s" s="36">
-        <v>271</v>
-      </c>
     </row>
     <row customHeight="1" ht="14.25" r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
@@ -5670,9 +6095,6 @@
       <c r="E6" s="27">
         <v>5000</v>
       </c>
-      <c r="F6" t="s" s="37">
-        <v>271</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
@@ -5690,9 +6112,6 @@
       <c r="E7" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="F7" t="s" s="38">
-        <v>271</v>
-      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="s">
@@ -5710,9 +6129,6 @@
       <c r="E8" s="26">
         <v>60</v>
       </c>
-      <c r="F8" t="s" s="39">
-        <v>271</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="s">
@@ -5729,9 +6145,6 @@
       </c>
       <c r="E9" s="25" t="s">
         <v>11</v>
-      </c>
-      <c r="F9" t="s" s="40">
-        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5807,6 +6220,9 @@
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s" s="33">
+        <v>270</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -5824,6 +6240,9 @@
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s" s="34">
+        <v>270</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -5841,6 +6260,9 @@
       <c r="E4" s="6">
         <v>30</v>
       </c>
+      <c r="F4" t="s" s="35">
+        <v>270</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -5858,6 +6280,9 @@
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="F5" t="s" s="36">
+        <v>270</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -5874,6 +6299,9 @@
       </c>
       <c r="E6" s="6">
         <v>30</v>
+      </c>
+      <c r="F6" t="s" s="37">
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -6338,6 +6766,9 @@
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s" s="39">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -6355,6 +6786,9 @@
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s" s="40">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -6372,6 +6806,9 @@
       <c r="E4" s="6">
         <v>30</v>
       </c>
+      <c r="F4" t="s" s="41">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -6389,6 +6826,9 @@
       <c r="E5" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="F5" t="s" s="42">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -6406,6 +6846,9 @@
       <c r="E6" s="6">
         <v>30</v>
       </c>
+      <c r="F6" t="s" s="43">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -6423,6 +6866,9 @@
       <c r="E7" s="6" t="s">
         <v>267</v>
       </c>
+      <c r="F7" t="s" s="44">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -6440,6 +6886,9 @@
       <c r="E8" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="F8" t="s" s="45">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -6457,6 +6906,9 @@
       <c r="E9" s="6">
         <v>30</v>
       </c>
+      <c r="F9" t="s" s="46">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -6474,6 +6926,9 @@
       <c r="E10" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F10" t="s" s="47">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -6491,6 +6946,9 @@
       <c r="E11" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="F11" t="s" s="48">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -6508,6 +6966,9 @@
       <c r="E12" s="6">
         <v>30</v>
       </c>
+      <c r="F12" t="s" s="49">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -6525,6 +6986,9 @@
       <c r="E13" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F13" t="s" s="50">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -6542,6 +7006,9 @@
       <c r="E14" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="F14" t="s" s="51">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -6559,6 +7026,9 @@
       <c r="E15" s="6">
         <v>30</v>
       </c>
+      <c r="F15" t="s" s="52">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -6576,6 +7046,9 @@
       <c r="E16" s="6" t="s">
         <v>122</v>
       </c>
+      <c r="F16" t="s" s="53">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -6593,6 +7066,9 @@
       <c r="E17" s="11" t="s">
         <v>151</v>
       </c>
+      <c r="F17" t="s" s="54">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
@@ -6610,6 +7086,9 @@
       <c r="E18" s="6">
         <v>30</v>
       </c>
+      <c r="F18" t="s" s="55">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -6627,6 +7106,9 @@
       <c r="E19" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F19" t="s" s="56">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -6644,6 +7126,9 @@
       <c r="E20" s="6">
         <v>60</v>
       </c>
+      <c r="F20" t="s" s="57">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -6661,6 +7146,9 @@
       <c r="E21" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F21" t="s" s="58">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -6678,6 +7166,9 @@
       <c r="E22" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="F22" t="s" s="59">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -6695,6 +7186,9 @@
       <c r="E23" s="6">
         <v>60</v>
       </c>
+      <c r="F23" t="s" s="60">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -6712,6 +7206,9 @@
       <c r="E24" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F24" t="s" s="61">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -6729,6 +7226,9 @@
       <c r="E25" s="11" t="s">
         <v>151</v>
       </c>
+      <c r="F25" t="s" s="62">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -6746,6 +7246,9 @@
       <c r="E26" s="6">
         <v>60</v>
       </c>
+      <c r="F26" t="s" s="63">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -6763,6 +7266,9 @@
       <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F27" t="s" s="64">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -6780,6 +7286,9 @@
       <c r="E28" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="F28" t="s" s="65">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
@@ -6797,6 +7306,9 @@
       <c r="E29" s="6">
         <v>30</v>
       </c>
+      <c r="F29" t="s" s="66">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
@@ -6813,6 +7325,9 @@
       </c>
       <c r="E30" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="F30" t="s" s="67">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6877,6 +7392,9 @@
       <c r="E2" s="11">
         <v>30</v>
       </c>
+      <c r="F2" t="s" s="69">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -6894,6 +7412,9 @@
       <c r="E3" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s" s="70">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -6911,6 +7432,9 @@
       <c r="E4" s="11">
         <v>30</v>
       </c>
+      <c r="F4" t="s" s="71">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -6928,6 +7452,9 @@
       <c r="E5" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="F5" t="s" s="72">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -6945,6 +7472,9 @@
       <c r="E6" s="11">
         <v>30</v>
       </c>
+      <c r="F6" t="s" s="73">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -6962,6 +7492,9 @@
       <c r="E7" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="F7" t="s" s="74">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
@@ -6979,6 +7512,9 @@
       <c r="E8" s="11">
         <v>30</v>
       </c>
+      <c r="F8" t="s" s="75">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
@@ -6996,6 +7532,9 @@
       <c r="E9" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="F9" t="s" s="76">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
@@ -7013,6 +7552,9 @@
       <c r="E10" s="11">
         <v>30</v>
       </c>
+      <c r="F10" t="s" s="77">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
@@ -7030,6 +7572,9 @@
       <c r="E11" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="F11" t="s" s="78">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
@@ -7047,6 +7592,9 @@
       <c r="E12" s="11">
         <v>7000</v>
       </c>
+      <c r="F12" t="s" s="79">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
@@ -7064,6 +7612,9 @@
       <c r="E13" s="11">
         <v>30</v>
       </c>
+      <c r="F13" t="s" s="80">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -7081,6 +7632,9 @@
       <c r="E14" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="F14" t="s" s="81">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
@@ -7098,6 +7652,9 @@
       <c r="E15" s="11">
         <v>5000</v>
       </c>
+      <c r="F15" t="s" s="82">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
@@ -7115,6 +7672,9 @@
       <c r="E16" s="11">
         <v>30</v>
       </c>
+      <c r="F16" t="s" s="83">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
@@ -7132,6 +7692,9 @@
       <c r="E17" s="11" t="s">
         <v>104</v>
       </c>
+      <c r="F17" t="s" s="84">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
@@ -7149,6 +7712,9 @@
       <c r="E18" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="F18" t="s" s="85">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
@@ -7166,6 +7732,9 @@
       <c r="E19" s="11">
         <v>30</v>
       </c>
+      <c r="F19" t="s" s="86">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
@@ -7183,6 +7752,9 @@
       <c r="E20" s="13" t="s">
         <v>11</v>
       </c>
+      <c r="F20" t="s" s="87">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
@@ -7200,6 +7772,9 @@
       <c r="E21" s="11">
         <v>5000</v>
       </c>
+      <c r="F21" t="s" s="88">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
@@ -7217,6 +7792,9 @@
       <c r="E22" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="F22" t="s" s="89">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
@@ -7234,6 +7812,9 @@
       <c r="E23" s="11" t="s">
         <v>101</v>
       </c>
+      <c r="F23" t="s" s="90">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
@@ -7251,6 +7832,9 @@
       <c r="E24" s="32">
         <v>123</v>
       </c>
+      <c r="F24" t="s" s="91">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
@@ -7268,6 +7852,9 @@
       <c r="E25" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="F25" t="s" s="92">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
@@ -7285,6 +7872,9 @@
       <c r="E26" s="6">
         <v>30</v>
       </c>
+      <c r="F26" t="s" s="93">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
@@ -7302,6 +7892,9 @@
       <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F27" t="s" s="94">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
@@ -7318,6 +7911,9 @@
       </c>
       <c r="E28" s="14" t="s">
         <v>11</v>
+      </c>
+      <c r="F28" t="s" s="95">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -7379,6 +7975,9 @@
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s" s="97">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
@@ -7396,6 +7995,9 @@
       <c r="E3" s="6" t="s">
         <v>11</v>
       </c>
+      <c r="F3" t="s" s="98">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
@@ -7413,6 +8015,9 @@
       <c r="E4" s="11" t="s">
         <v>104</v>
       </c>
+      <c r="F4" t="s" s="99">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
@@ -7430,6 +8035,9 @@
       <c r="E5" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F5" t="s" s="100">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
@@ -7447,6 +8055,9 @@
       <c r="E6" s="11" t="s">
         <v>119</v>
       </c>
+      <c r="F6" t="s" s="101">
+        <v>270</v>
+      </c>
     </row>
     <row ht="21" r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
@@ -7463,6 +8074,9 @@
       </c>
       <c r="E7" s="5" t="s">
         <v>11</v>
+      </c>
+      <c r="F7" t="s" s="102">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
